--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.625493333333333</v>
+        <v>1.038291333333333</v>
       </c>
       <c r="H2">
-        <v>4.87648</v>
+        <v>3.114874</v>
       </c>
       <c r="I2">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147798</v>
       </c>
       <c r="J2">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147799</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>61.629167</v>
+        <v>200.005264</v>
       </c>
       <c r="N2">
-        <v>184.887501</v>
+        <v>600.0157919999999</v>
       </c>
       <c r="O2">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503665</v>
       </c>
       <c r="P2">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503667</v>
       </c>
       <c r="Q2">
-        <v>100.1778000973867</v>
+        <v>207.6637322322453</v>
       </c>
       <c r="R2">
-        <v>901.60020087648</v>
+        <v>1868.973590090208</v>
       </c>
       <c r="S2">
-        <v>0.1241488275651786</v>
+        <v>0.09378584517042526</v>
       </c>
       <c r="T2">
-        <v>0.1241488275651786</v>
+        <v>0.09378584517042529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.625493333333333</v>
+        <v>1.038291333333333</v>
       </c>
       <c r="H3">
-        <v>4.87648</v>
+        <v>3.114874</v>
       </c>
       <c r="I3">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147798</v>
       </c>
       <c r="J3">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147799</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.073051</v>
       </c>
       <c r="O3">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924051</v>
       </c>
       <c r="P3">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924052</v>
       </c>
       <c r="Q3">
-        <v>2.206905748942222</v>
+        <v>1.409671184508222</v>
       </c>
       <c r="R3">
-        <v>19.86215174048</v>
+        <v>12.687040660574</v>
       </c>
       <c r="S3">
-        <v>0.002734984807129704</v>
+        <v>0.0006366407943763683</v>
       </c>
       <c r="T3">
-        <v>0.002734984807129705</v>
+        <v>0.0006366407943763685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.625493333333333</v>
+        <v>1.038291333333333</v>
       </c>
       <c r="H4">
-        <v>4.87648</v>
+        <v>3.114874</v>
       </c>
       <c r="I4">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147798</v>
       </c>
       <c r="J4">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147799</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.926218666666665</v>
+        <v>9.926218666666667</v>
       </c>
       <c r="N4">
         <v>29.778656</v>
       </c>
       <c r="O4">
-        <v>0.1361377151918736</v>
+        <v>0.04697930726370939</v>
       </c>
       <c r="P4">
-        <v>0.1361377151918736</v>
+        <v>0.0469793072637094</v>
       </c>
       <c r="Q4">
-        <v>16.13500226787555</v>
+        <v>10.30630681437155</v>
       </c>
       <c r="R4">
-        <v>145.21502041088</v>
+        <v>92.756761329344</v>
       </c>
       <c r="S4">
-        <v>0.01999586347844449</v>
+        <v>0.004654571526676344</v>
       </c>
       <c r="T4">
-        <v>0.0199958634784445</v>
+        <v>0.004654571526676345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>15.12358</v>
       </c>
       <c r="I5">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="J5">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.629167</v>
+        <v>200.005264</v>
       </c>
       <c r="N5">
-        <v>184.887501</v>
+        <v>600.0157919999999</v>
       </c>
       <c r="O5">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503665</v>
       </c>
       <c r="P5">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503667</v>
       </c>
       <c r="Q5">
-        <v>310.6845458192867</v>
+        <v>1008.265203508373</v>
       </c>
       <c r="R5">
-        <v>2796.16091237358</v>
+        <v>9074.386831575359</v>
       </c>
       <c r="S5">
-        <v>0.3850266433140674</v>
+        <v>0.4553563747048966</v>
       </c>
       <c r="T5">
-        <v>0.3850266433140674</v>
+        <v>0.4553563747048968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>15.12358</v>
       </c>
       <c r="I6">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="J6">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.073051</v>
       </c>
       <c r="O6">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924051</v>
       </c>
       <c r="P6">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924052</v>
       </c>
       <c r="Q6">
         <v>6.844345849175554</v>
@@ -818,10 +818,10 @@
         <v>61.59911264258</v>
       </c>
       <c r="S6">
-        <v>0.008482093954945095</v>
+        <v>0.003091068205331759</v>
       </c>
       <c r="T6">
-        <v>0.008482093954945097</v>
+        <v>0.00309106820533176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>15.12358</v>
       </c>
       <c r="I7">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="J7">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.926218666666665</v>
+        <v>9.926218666666667</v>
       </c>
       <c r="N7">
         <v>29.778656</v>
       </c>
       <c r="O7">
-        <v>0.1361377151918736</v>
+        <v>0.04697930726370939</v>
       </c>
       <c r="P7">
-        <v>0.1361377151918736</v>
+        <v>0.0469793072637094</v>
       </c>
       <c r="Q7">
-        <v>50.03998736760888</v>
+        <v>50.03998736760889</v>
       </c>
       <c r="R7">
         <v>450.35988630848</v>
       </c>
       <c r="S7">
-        <v>0.06201379703912115</v>
+        <v>0.02259923992091232</v>
       </c>
       <c r="T7">
-        <v>0.06201379703912117</v>
+        <v>0.02259923992091232</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.200449</v>
       </c>
       <c r="I8">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="J8">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.629167</v>
+        <v>200.005264</v>
       </c>
       <c r="N8">
-        <v>184.887501</v>
+        <v>600.0157919999999</v>
       </c>
       <c r="O8">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503665</v>
       </c>
       <c r="P8">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503667</v>
       </c>
       <c r="Q8">
-        <v>271.1775586319943</v>
+        <v>880.0530957211786</v>
       </c>
       <c r="R8">
-        <v>2440.598027687949</v>
+        <v>7920.477861490606</v>
       </c>
       <c r="S8">
-        <v>0.3360662335709229</v>
+        <v>0.3974527592750446</v>
       </c>
       <c r="T8">
-        <v>0.3360662335709229</v>
+        <v>0.3974527592750446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.200449</v>
       </c>
       <c r="I9">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="J9">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.073051</v>
       </c>
       <c r="O9">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924051</v>
       </c>
       <c r="P9">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924052</v>
       </c>
       <c r="Q9">
         <v>5.97401133332211</v>
@@ -1004,10 +1004,10 @@
         <v>53.76610199989899</v>
       </c>
       <c r="S9">
-        <v>0.007403501595882789</v>
+        <v>0.002698004586215923</v>
       </c>
       <c r="T9">
-        <v>0.007403501595882789</v>
+        <v>0.002698004586215923</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.200449</v>
       </c>
       <c r="I10">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="J10">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.926218666666665</v>
+        <v>9.926218666666667</v>
       </c>
       <c r="N10">
         <v>29.778656</v>
       </c>
       <c r="O10">
-        <v>0.1361377151918736</v>
+        <v>0.04697930726370939</v>
       </c>
       <c r="P10">
-        <v>0.1361377151918736</v>
+        <v>0.0469793072637094</v>
       </c>
       <c r="Q10">
-        <v>43.67684775739377</v>
+        <v>43.67684775739378</v>
       </c>
       <c r="R10">
         <v>393.091629816544</v>
       </c>
       <c r="S10">
-        <v>0.05412805467430792</v>
+        <v>0.01972549581612073</v>
       </c>
       <c r="T10">
-        <v>0.05412805467430794</v>
+        <v>0.01972549581612073</v>
       </c>
     </row>
   </sheetData>
